--- a/files/2023-05-08.xlsx
+++ b/files/2023-05-08.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="10">
   <si>
     <t>ID</t>
   </si>
@@ -28,7 +28,7 @@
     <t>Content</t>
   </si>
   <si>
-    <t>top1@gmail.com</t>
+    <t>top1successfulman@gmail.com</t>
   </si>
   <si>
     <t>Today Topic</t>
@@ -37,49 +37,13 @@
     <t>What is the blockchain</t>
   </si>
   <si>
-    <t>top2@gmail.com</t>
+    <t>top2successfulman@gmail.com</t>
   </si>
   <si>
-    <t>top3@gmail.com</t>
+    <t>top3successfulman@gmail.com</t>
   </si>
   <si>
-    <t>top4@gmail.com</t>
-  </si>
-  <si>
-    <t>top5@gmail.com</t>
-  </si>
-  <si>
-    <t>top6@gmail.com</t>
-  </si>
-  <si>
-    <t>top7@gmail.com</t>
-  </si>
-  <si>
-    <t>top8@gmail.com</t>
-  </si>
-  <si>
-    <t>top9@gmail.com</t>
-  </si>
-  <si>
-    <t>top10@gmail.com</t>
-  </si>
-  <si>
-    <t>top11@gmail.com</t>
-  </si>
-  <si>
-    <t>top12@gmail.com</t>
-  </si>
-  <si>
-    <t>top13@gmail.com</t>
-  </si>
-  <si>
-    <t>top14@gmail.com</t>
-  </si>
-  <si>
-    <t>top15@gmail.com</t>
-  </si>
-  <si>
-    <t>top16@gmail.com</t>
+    <t>top4successfulman@gmail.com</t>
   </si>
 </sst>
 </file>
@@ -87,10 +51,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -110,12 +74,59 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -123,11 +134,10 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -140,36 +150,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
@@ -192,6 +172,13 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
@@ -208,15 +195,8 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -224,22 +204,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -254,13 +218,151 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -272,169 +374,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -448,11 +412,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -481,17 +451,13 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
+      <left/>
+      <right/>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color theme="4"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -514,8 +480,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -537,11 +503,9 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
+      <top/>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -550,148 +514,148 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="17" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="17" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="26" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="24" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="24" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1024,12 +988,12 @@
   <dimension ref="A1:D17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelCol="3"/>
   <cols>
-    <col min="2" max="2" width="23.4285714285714" customWidth="1"/>
+    <col min="2" max="2" width="36.2857142857143" customWidth="1"/>
     <col min="3" max="3" width="16.8571428571429" customWidth="1"/>
     <col min="4" max="4" width="23.7142857142857" customWidth="1"/>
   </cols>
@@ -1109,7 +1073,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="C6" t="s">
         <v>5</v>
@@ -1123,7 +1087,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="C7" t="s">
         <v>5</v>
@@ -1137,7 +1101,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="C8" t="s">
         <v>5</v>
@@ -1151,7 +1115,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C9" t="s">
         <v>5</v>
@@ -1165,7 +1129,7 @@
         <v>9</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="C10" t="s">
         <v>5</v>
@@ -1179,7 +1143,7 @@
         <v>10</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="C11" t="s">
         <v>5</v>
@@ -1193,7 +1157,7 @@
         <v>11</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="C12" t="s">
         <v>5</v>
@@ -1207,7 +1171,7 @@
         <v>12</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="C13" t="s">
         <v>5</v>
@@ -1221,7 +1185,7 @@
         <v>13</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>18</v>
+        <v>4</v>
       </c>
       <c r="C14" t="s">
         <v>5</v>
@@ -1235,7 +1199,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>19</v>
+        <v>7</v>
       </c>
       <c r="C15" t="s">
         <v>5</v>
@@ -1249,7 +1213,7 @@
         <v>15</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="C16" t="s">
         <v>5</v>
@@ -1263,7 +1227,7 @@
         <v>16</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="C17" t="s">
         <v>5</v>
@@ -1274,22 +1238,22 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B2" r:id="rId1" display="top1@gmail.com"/>
-    <hyperlink ref="B3" r:id="rId2" display="top2@gmail.com"/>
-    <hyperlink ref="B4" r:id="rId1" display="top3@gmail.com"/>
-    <hyperlink ref="B6" r:id="rId1" display="top5@gmail.com"/>
-    <hyperlink ref="B8" r:id="rId1" display="top7@gmail.com"/>
-    <hyperlink ref="B10" r:id="rId1" display="top9@gmail.com"/>
-    <hyperlink ref="B12" r:id="rId1" display="top11@gmail.com"/>
-    <hyperlink ref="B14" r:id="rId1" display="top13@gmail.com"/>
-    <hyperlink ref="B16" r:id="rId1" display="top15@gmail.com"/>
-    <hyperlink ref="B5" r:id="rId2" display="top4@gmail.com"/>
-    <hyperlink ref="B7" r:id="rId2" display="top6@gmail.com"/>
-    <hyperlink ref="B9" r:id="rId2" display="top8@gmail.com"/>
-    <hyperlink ref="B11" r:id="rId2" display="top10@gmail.com"/>
-    <hyperlink ref="B13" r:id="rId2" display="top12@gmail.com"/>
-    <hyperlink ref="B15" r:id="rId2" display="top14@gmail.com"/>
-    <hyperlink ref="B17" r:id="rId2" display="top16@gmail.com"/>
+    <hyperlink ref="B2" r:id="rId1" display="top1successfulman@gmail.com" tooltip="mailto:top1successfulman@gmail.com"/>
+    <hyperlink ref="B3" r:id="rId2" display="top2successfulman@gmail.com" tooltip="mailto:top2successfulman@gmail.com"/>
+    <hyperlink ref="B4" r:id="rId1" display="top3successfulman@gmail.com" tooltip="mailto:top1successfulman@gmail.com"/>
+    <hyperlink ref="B5" r:id="rId2" display="top4successfulman@gmail.com" tooltip="mailto:top2successfulman@gmail.com"/>
+    <hyperlink ref="B6" r:id="rId1" display="top1successfulman@gmail.com" tooltip="mailto:top1successfulman@gmail.com"/>
+    <hyperlink ref="B7" r:id="rId2" display="top2successfulman@gmail.com" tooltip="mailto:top2successfulman@gmail.com"/>
+    <hyperlink ref="B8" r:id="rId1" display="top3successfulman@gmail.com" tooltip="mailto:top1successfulman@gmail.com"/>
+    <hyperlink ref="B9" r:id="rId2" display="top4successfulman@gmail.com" tooltip="mailto:top2successfulman@gmail.com"/>
+    <hyperlink ref="B10" r:id="rId1" display="top1successfulman@gmail.com" tooltip="mailto:top1successfulman@gmail.com"/>
+    <hyperlink ref="B11" r:id="rId2" display="top2successfulman@gmail.com" tooltip="mailto:top2successfulman@gmail.com"/>
+    <hyperlink ref="B12" r:id="rId1" display="top3successfulman@gmail.com" tooltip="mailto:top1successfulman@gmail.com"/>
+    <hyperlink ref="B13" r:id="rId2" display="top4successfulman@gmail.com" tooltip="mailto:top2successfulman@gmail.com"/>
+    <hyperlink ref="B14" r:id="rId1" display="top1successfulman@gmail.com" tooltip="mailto:top1successfulman@gmail.com"/>
+    <hyperlink ref="B15" r:id="rId2" display="top2successfulman@gmail.com" tooltip="mailto:top2successfulman@gmail.com"/>
+    <hyperlink ref="B16" r:id="rId1" display="top3successfulman@gmail.com" tooltip="mailto:top1successfulman@gmail.com"/>
+    <hyperlink ref="B17" r:id="rId2" display="top4successfulman@gmail.com" tooltip="mailto:top2successfulman@gmail.com"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
